--- a/Assets/Data/Table/Convert/SpawnPoint_Character.xlsx
+++ b/Assets/Data/Table/Convert/SpawnPoint_Character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BF4C5B-8B71-4706-89CF-BB0ED8248FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D122C8-1295-4137-834A-DEC4E7784848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46188" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -88,11 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enum.SpawnPoint.
-RespawnType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tb.Character
 Character</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +109,10 @@
   </si>
   <si>
     <t>Disable_Event_OR_List</t>
+  </si>
+  <si>
+    <t>Em.SpawnPoint.
+RespawnType</t>
   </si>
 </sst>
 </file>
@@ -626,22 +625,22 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.59765625" style="7" customWidth="1"/>
     <col min="2" max="2" width="34.5" style="13" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="15.5" style="13" customWidth="1"/>
-    <col min="7" max="7" width="14.875" style="13" customWidth="1"/>
-    <col min="8" max="9" width="14.875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="20.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.8984375" style="13" customWidth="1"/>
+    <col min="8" max="9" width="14.8984375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="20.19921875" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="108.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="106.8" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -652,13 +651,13 @@
         <v>8</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>3</v>
@@ -670,30 +669,30 @@
         <v>11</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>10</v>
@@ -705,7 +704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -720,17 +719,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="L4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="L5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="L6" s="1" t="s">
         <v>7</v>
       </c>
